--- a/BalanceSheet/AAL_bal.xlsx
+++ b/BalanceSheet/AAL_bal.xlsx
@@ -3190,7 +3190,7 @@
         <v>-3632000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-2568000000.0</v>
+        <v>-3239000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>-2425000000.0</v>
